--- a/medicine/Enfance/Patricia_Wrightson/Patricia_Wrightson.xlsx
+++ b/medicine/Enfance/Patricia_Wrightson/Patricia_Wrightson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patricia Wrightson, née le 19 juin 1921 à Lismore en Nouvelle-Galles du Sud[1] et décédée le 15 mars 2010 (à 88 ans)[2] à Lismore, est une autrice australienne de littérature de jeunesse. Elle est lauréate du prestigieux prix international, le prix Hans Christian Andersen, catégorie Écriture, en 1986.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patricia Wrightson, née le 19 juin 1921 à Lismore en Nouvelle-Galles du Sud et décédée le 15 mars 2010 (à 88 ans) à Lismore, est une autrice australienne de littérature de jeunesse. Elle est lauréate du prestigieux prix international, le prix Hans Christian Andersen, catégorie Écriture, en 1986.
 Durant plusieurs années, elle a édité le School Magazine (en). Le Premier Prix littéraire de Nouvelle-Galles du Sud (en) de littérature jeunesse a été nommé en son honneur.
 </t>
         </is>
@@ -512,15 +524,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1970 - (international) « Honor List »[3], de l' IBBY, pour I Own the Racecourse
-1976 - (international) « Honor List »[3], de l' IBBY, pour The Nargun and the Stars
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1970 - (international) « Honor List », de l' IBBY, pour I Own the Racecourse
+1976 - (international) « Honor List », de l' IBBY, pour The Nargun and the Stars
 1980 - Sélection Prix World Fantasy du meilleur roman pour The Dark Bright Water 
 1982 - Sélection prix Locus du meilleur roman de fantasy pour Journey Behind the Wind.
 1982 – prix Ditmar (en) du meilleur roman australien de science-fiction ou fantasy pour Behind the Wind
-1984 – médaille Dromkeen (en)[4]
-1986 – prix Hans Christian Andersen d'écriture[2]</t>
+1984 – médaille Dromkeen (en)
+1986 – prix Hans Christian Andersen d'écriture</t>
         </is>
       </c>
     </row>
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) The Crooked Snake, 1955
 (en) The Bunyip Hole, 1958
